--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.71509989688811</v>
+        <v>31.825501</v>
       </c>
       <c r="H2">
-        <v>4.71509989688811</v>
+        <v>95.47650300000001</v>
       </c>
       <c r="I2">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="J2">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N2">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P2">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q2">
-        <v>55.69623518693536</v>
+        <v>465.2500823767827</v>
       </c>
       <c r="R2">
-        <v>55.69623518693536</v>
+        <v>4187.250741391044</v>
       </c>
       <c r="S2">
-        <v>0.09925153947371135</v>
+        <v>0.1614635850720016</v>
       </c>
       <c r="T2">
-        <v>0.09925153947371135</v>
+        <v>0.1614635850720016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.71509989688811</v>
+        <v>31.825501</v>
       </c>
       <c r="H3">
-        <v>4.71509989688811</v>
+        <v>95.47650300000001</v>
       </c>
       <c r="I3">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="J3">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P3">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q3">
-        <v>126.1239321641785</v>
+        <v>861.9672475936692</v>
       </c>
       <c r="R3">
-        <v>126.1239321641785</v>
+        <v>7757.705228343022</v>
       </c>
       <c r="S3">
-        <v>0.2247547682488419</v>
+        <v>0.2991430357198895</v>
       </c>
       <c r="T3">
-        <v>0.2247547682488419</v>
+        <v>0.2991430357198895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.71509989688811</v>
+        <v>31.825501</v>
       </c>
       <c r="H4">
-        <v>4.71509989688811</v>
+        <v>95.47650300000001</v>
       </c>
       <c r="I4">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="J4">
-        <v>0.4166255006469298</v>
+        <v>0.6063608875535647</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.0229714342534</v>
+        <v>13.19647366666667</v>
       </c>
       <c r="N4">
-        <v>11.0229714342534</v>
+        <v>39.589421</v>
       </c>
       <c r="O4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="P4">
-        <v>0.2223080267063799</v>
+        <v>0.2403754426670501</v>
       </c>
       <c r="Q4">
-        <v>51.97441147304878</v>
+        <v>419.9843858749737</v>
       </c>
       <c r="R4">
-        <v>51.97441147304878</v>
+        <v>3779.859472874763</v>
       </c>
       <c r="S4">
-        <v>0.09261919292437658</v>
+        <v>0.1457542667616735</v>
       </c>
       <c r="T4">
-        <v>0.09261919292437658</v>
+        <v>0.1457542667616735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.60225799303119</v>
+        <v>4.846280666666666</v>
       </c>
       <c r="H5">
-        <v>6.60225799303119</v>
+        <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="J5">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.812312868216</v>
+        <v>14.61878266666667</v>
       </c>
       <c r="N5">
-        <v>11.812312868216</v>
+        <v>43.856348</v>
       </c>
       <c r="O5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="P5">
-        <v>0.2382272312174724</v>
+        <v>0.2662829816142094</v>
       </c>
       <c r="Q5">
-        <v>77.98793705036428</v>
+        <v>70.84672380766844</v>
       </c>
       <c r="R5">
-        <v>77.98793705036428</v>
+        <v>637.6205142690159</v>
       </c>
       <c r="S5">
-        <v>0.1389756917437611</v>
+        <v>0.02458713378008188</v>
       </c>
       <c r="T5">
-        <v>0.1389756917437611</v>
+        <v>0.02458713378008188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.60225799303119</v>
+        <v>4.846280666666666</v>
       </c>
       <c r="H6">
-        <v>6.60225799303119</v>
+        <v>14.538842</v>
       </c>
       <c r="I6">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="J6">
-        <v>0.5833744993530702</v>
+        <v>0.09233460445363234</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.7489416814728</v>
+        <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>26.7489416814728</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="P6">
-        <v>0.5394647420761477</v>
+        <v>0.4933415757187404</v>
       </c>
       <c r="Q6">
-        <v>176.603414021629</v>
+        <v>131.2574845974327</v>
       </c>
       <c r="R6">
-        <v>176.603414021629</v>
+        <v>1181.317361376894</v>
       </c>
       <c r="S6">
-        <v>0.3147099738273058</v>
+        <v>0.0455524992545216</v>
       </c>
       <c r="T6">
-        <v>0.3147099738273058</v>
+        <v>0.0455524992545216</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.846280666666666</v>
+      </c>
+      <c r="H7">
+        <v>14.538842</v>
+      </c>
+      <c r="I7">
+        <v>0.09233460445363234</v>
+      </c>
+      <c r="J7">
+        <v>0.09233460445363234</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>13.19647366666667</v>
+      </c>
+      <c r="N7">
+        <v>39.589421</v>
+      </c>
+      <c r="O7">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="P7">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="Q7">
+        <v>63.95381519894244</v>
+      </c>
+      <c r="R7">
+        <v>575.584336790482</v>
+      </c>
+      <c r="S7">
+        <v>0.02219497141902885</v>
+      </c>
+      <c r="T7">
+        <v>0.02219497141902885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>15.81429</v>
+      </c>
+      <c r="H8">
+        <v>47.44287</v>
+      </c>
+      <c r="I8">
+        <v>0.301304507992803</v>
+      </c>
+      <c r="J8">
+        <v>0.3013045079928031</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.61878266666667</v>
+      </c>
+      <c r="N8">
+        <v>43.856348</v>
+      </c>
+      <c r="O8">
+        <v>0.2662829816142094</v>
+      </c>
+      <c r="P8">
+        <v>0.2662829816142094</v>
+      </c>
+      <c r="Q8">
+        <v>231.18566853764</v>
+      </c>
+      <c r="R8">
+        <v>2080.67101683876</v>
+      </c>
+      <c r="S8">
+        <v>0.08023226276212599</v>
+      </c>
+      <c r="T8">
+        <v>0.080232262762126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.60225799303119</v>
-      </c>
-      <c r="H7">
-        <v>6.60225799303119</v>
-      </c>
-      <c r="I7">
-        <v>0.5833744993530702</v>
-      </c>
-      <c r="J7">
-        <v>0.5833744993530702</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>11.0229714342534</v>
-      </c>
-      <c r="N7">
-        <v>11.0229714342534</v>
-      </c>
-      <c r="O7">
-        <v>0.2223080267063799</v>
-      </c>
-      <c r="P7">
-        <v>0.2223080267063799</v>
-      </c>
-      <c r="Q7">
-        <v>72.776501258754</v>
-      </c>
-      <c r="R7">
-        <v>72.776501258754</v>
-      </c>
-      <c r="S7">
-        <v>0.1296888337820033</v>
-      </c>
-      <c r="T7">
-        <v>0.1296888337820033</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>15.81429</v>
+      </c>
+      <c r="H9">
+        <v>47.44287</v>
+      </c>
+      <c r="I9">
+        <v>0.301304507992803</v>
+      </c>
+      <c r="J9">
+        <v>0.3013045079928031</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.084169</v>
+      </c>
+      <c r="N9">
+        <v>81.25250700000001</v>
+      </c>
+      <c r="O9">
+        <v>0.4933415757187404</v>
+      </c>
+      <c r="P9">
+        <v>0.4933415757187404</v>
+      </c>
+      <c r="Q9">
+        <v>428.31690297501</v>
+      </c>
+      <c r="R9">
+        <v>3854.85212677509</v>
+      </c>
+      <c r="S9">
+        <v>0.1486460407443292</v>
+      </c>
+      <c r="T9">
+        <v>0.1486460407443293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>15.81429</v>
+      </c>
+      <c r="H10">
+        <v>47.44287</v>
+      </c>
+      <c r="I10">
+        <v>0.301304507992803</v>
+      </c>
+      <c r="J10">
+        <v>0.3013045079928031</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.19647366666667</v>
+      </c>
+      <c r="N10">
+        <v>39.589421</v>
+      </c>
+      <c r="O10">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="P10">
+        <v>0.2403754426670501</v>
+      </c>
+      <c r="Q10">
+        <v>208.69286154203</v>
+      </c>
+      <c r="R10">
+        <v>1878.23575387827</v>
+      </c>
+      <c r="S10">
+        <v>0.07242620448634776</v>
+      </c>
+      <c r="T10">
+        <v>0.07242620448634778</v>
       </c>
     </row>
   </sheetData>
